--- a/Code/Results/Cases/Case_3_234/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_234/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.1735584201136</v>
+        <v>16.70093436015432</v>
       </c>
       <c r="C2">
-        <v>6.626803554701357</v>
+        <v>6.468860745156574</v>
       </c>
       <c r="D2">
-        <v>11.69597076909175</v>
+        <v>11.35442112295005</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>66.03887326445239</v>
+        <v>56.9220229332803</v>
       </c>
       <c r="G2">
-        <v>2.158144267694166</v>
+        <v>3.769390396562137</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.725391416536795</v>
+        <v>12.82697287926648</v>
       </c>
       <c r="L2">
-        <v>7.06144549677373</v>
+        <v>10.87050959397311</v>
       </c>
       <c r="M2">
-        <v>10.61555262517637</v>
+        <v>16.80557504187401</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.51374651209637</v>
+        <v>16.67055818930364</v>
       </c>
       <c r="C3">
-        <v>6.408139569010826</v>
+        <v>6.389049573503332</v>
       </c>
       <c r="D3">
-        <v>11.29466482286697</v>
+        <v>11.21209189896101</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>62.74657170239125</v>
+        <v>55.79519193304199</v>
       </c>
       <c r="G3">
-        <v>2.169042520746229</v>
+        <v>3.772983881830482</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.008593888965352</v>
+        <v>12.83962088372387</v>
       </c>
       <c r="L3">
-        <v>6.954219480186477</v>
+        <v>10.87471791188447</v>
       </c>
       <c r="M3">
-        <v>10.39535202581531</v>
+        <v>16.82996393019905</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.10795368898067</v>
+        <v>16.65813284678714</v>
       </c>
       <c r="C4">
-        <v>6.271605364146568</v>
+        <v>6.33780158523264</v>
       </c>
       <c r="D4">
-        <v>11.04350696377544</v>
+        <v>11.1226030171463</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>60.66900024138695</v>
+        <v>55.09314430096277</v>
       </c>
       <c r="G4">
-        <v>2.175871842493927</v>
+        <v>3.775302029571474</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.548090599448145</v>
+        <v>12.8525638025309</v>
       </c>
       <c r="L4">
-        <v>6.891410455510938</v>
+        <v>10.87881984688133</v>
       </c>
       <c r="M4">
-        <v>10.26720742993954</v>
+        <v>16.84859476777214</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.94263173692937</v>
+        <v>16.65463849258699</v>
       </c>
       <c r="C5">
-        <v>6.215336128739151</v>
+        <v>6.316352401624684</v>
       </c>
       <c r="D5">
-        <v>10.93998120838489</v>
+        <v>11.0856220458491</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>59.80874506988727</v>
+        <v>54.80476950130085</v>
       </c>
       <c r="G5">
-        <v>2.178692290646917</v>
+        <v>3.776274900733167</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.392799291687272</v>
+        <v>12.85913617042277</v>
       </c>
       <c r="L5">
-        <v>6.866570588480079</v>
+        <v>10.88087337882188</v>
       </c>
       <c r="M5">
-        <v>10.21676288468533</v>
+        <v>16.85710536122476</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.9151895892502</v>
+        <v>16.65415309247614</v>
       </c>
       <c r="C6">
-        <v>6.205952985386169</v>
+        <v>6.31275661408657</v>
       </c>
       <c r="D6">
-        <v>10.92272049916049</v>
+        <v>11.07945078449055</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>59.6650941257989</v>
+        <v>54.75675522482839</v>
       </c>
       <c r="G6">
-        <v>2.179162963303333</v>
+        <v>3.776438152144063</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.374918197638671</v>
+        <v>12.86030577417571</v>
       </c>
       <c r="L6">
-        <v>6.862491386775398</v>
+        <v>10.88123744098689</v>
       </c>
       <c r="M6">
-        <v>10.20849381855015</v>
+        <v>16.85857397386273</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.10572362312463</v>
+        <v>16.65807936437523</v>
       </c>
       <c r="C7">
-        <v>6.270849123451693</v>
+        <v>6.337514603842494</v>
       </c>
       <c r="D7">
-        <v>11.04211551222954</v>
+        <v>11.12210633922032</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>60.6574529788459</v>
+        <v>55.08926406213468</v>
       </c>
       <c r="G7">
-        <v>2.175909724884549</v>
+        <v>3.775315035697719</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.545510442722835</v>
+        <v>12.85264718995565</v>
       </c>
       <c r="L7">
-        <v>6.891072406205868</v>
+        <v>10.8788459947364</v>
       </c>
       <c r="M7">
-        <v>10.26651992906433</v>
+        <v>16.84870582761633</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.94630596674216</v>
+        <v>16.6891712130853</v>
       </c>
       <c r="C8">
-        <v>6.551842780706614</v>
+        <v>6.441806863606857</v>
       </c>
       <c r="D8">
-        <v>11.55859501280403</v>
+        <v>11.30578982544471</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>64.91556557945901</v>
+        <v>56.53576269162468</v>
       </c>
       <c r="G8">
-        <v>2.161875157114361</v>
+        <v>3.770606306970365</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.482398753554838</v>
+        <v>12.83025746707398</v>
       </c>
       <c r="L8">
-        <v>7.023841666796072</v>
+        <v>10.87164572975347</v>
       </c>
       <c r="M8">
-        <v>10.53816250642443</v>
+        <v>16.81322503809883</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.58249732591252</v>
+        <v>16.79929562856825</v>
       </c>
       <c r="C9">
-        <v>7.087842970574086</v>
+        <v>6.628574613248582</v>
       </c>
       <c r="D9">
-        <v>12.53350301820124</v>
+        <v>11.64874693562948</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.80789797599165</v>
+        <v>59.2801959350025</v>
       </c>
       <c r="G9">
-        <v>2.135306497866135</v>
+        <v>3.762253990430427</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.16354179691588</v>
+        <v>12.82754892435429</v>
       </c>
       <c r="L9">
-        <v>7.308554092659769</v>
+        <v>10.86955774124412</v>
       </c>
       <c r="M9">
-        <v>11.12693231292321</v>
+        <v>16.77268928458779</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.87890064334299</v>
+        <v>16.90971300251965</v>
       </c>
       <c r="C10">
-        <v>7.477311800389456</v>
+        <v>6.755054623188234</v>
       </c>
       <c r="D10">
-        <v>13.22745056859825</v>
+        <v>11.88943589168693</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.32148597976359</v>
+        <v>61.22580887005954</v>
       </c>
       <c r="G10">
-        <v>2.116149293297612</v>
+        <v>3.756647817077018</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.31220061953768</v>
+        <v>12.85076743675962</v>
       </c>
       <c r="L10">
-        <v>7.533175198681397</v>
+        <v>10.87533761663739</v>
       </c>
       <c r="M10">
-        <v>11.59413377104813</v>
+        <v>16.76064529309658</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.522716331164</v>
+        <v>16.9662154915052</v>
       </c>
       <c r="C11">
-        <v>7.65483289648074</v>
+        <v>6.810280818901685</v>
       </c>
       <c r="D11">
-        <v>13.5387827752449</v>
+        <v>11.99632700244635</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.76979854973577</v>
+        <v>62.09272834823341</v>
       </c>
       <c r="G11">
-        <v>2.107456798666999</v>
+        <v>3.754211047246488</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.81816480409377</v>
+        <v>12.86680009322671</v>
       </c>
       <c r="L11">
-        <v>7.638903723076253</v>
+        <v>10.87954877993519</v>
       </c>
       <c r="M11">
-        <v>11.81444840477288</v>
+        <v>16.75901918638848</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.7640442688298</v>
+        <v>16.9884992228175</v>
       </c>
       <c r="C12">
-        <v>7.72223182085166</v>
+        <v>6.830862772309226</v>
       </c>
       <c r="D12">
-        <v>13.65611299754028</v>
+        <v>12.03641746157614</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.68865935518652</v>
+        <v>62.41817907781721</v>
       </c>
       <c r="G12">
-        <v>2.104162969505976</v>
+        <v>3.75330451106632</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.00758509811527</v>
+        <v>12.87365564472956</v>
       </c>
       <c r="L12">
-        <v>7.679471593717678</v>
+        <v>10.88137014950083</v>
       </c>
       <c r="M12">
-        <v>11.89903071964731</v>
+        <v>16.75895701100678</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.71217655734199</v>
+        <v>16.98366080309127</v>
       </c>
       <c r="C13">
-        <v>7.707706251845467</v>
+        <v>6.826444782517586</v>
       </c>
       <c r="D13">
-        <v>13.63086776532082</v>
+        <v>12.02780067375486</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.49112651501102</v>
+        <v>62.34821683356174</v>
       </c>
       <c r="G13">
-        <v>2.104872544303787</v>
+        <v>3.753499030347291</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.96688334884133</v>
+        <v>12.87214434503819</v>
       </c>
       <c r="L13">
-        <v>7.670710576323982</v>
+        <v>10.88096781624978</v>
       </c>
       <c r="M13">
-        <v>11.88076235545887</v>
+        <v>16.75894579030614</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.54261886649178</v>
+        <v>16.96803109112886</v>
       </c>
       <c r="C14">
-        <v>7.660373543804633</v>
+        <v>6.8119807354663</v>
       </c>
       <c r="D14">
-        <v>13.54844649963523</v>
+        <v>11.9996330955631</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.84555682713366</v>
+        <v>62.11956137774015</v>
       </c>
       <c r="G14">
-        <v>2.107185890167251</v>
+        <v>3.754136141591546</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.83379089833104</v>
+        <v>12.86734840183598</v>
       </c>
       <c r="L14">
-        <v>7.642230488784973</v>
+        <v>10.87969408666645</v>
       </c>
       <c r="M14">
-        <v>11.82138365935514</v>
+        <v>16.75900297983009</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.43844414905622</v>
+        <v>16.95857255259336</v>
       </c>
       <c r="C15">
-        <v>7.631407791017859</v>
+        <v>6.803078018293172</v>
       </c>
       <c r="D15">
-        <v>13.49788971149719</v>
+        <v>11.98232887696849</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.44906371529321</v>
+        <v>61.97912800806993</v>
       </c>
       <c r="G15">
-        <v>2.108602427170057</v>
+        <v>3.754528499230463</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.75199088795413</v>
+        <v>12.8645128025626</v>
       </c>
       <c r="L15">
-        <v>7.624855450898529</v>
+        <v>10.87894338778672</v>
       </c>
       <c r="M15">
-        <v>11.78516407597533</v>
+        <v>16.7591100867022</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.83646920629205</v>
+        <v>16.9061454545373</v>
       </c>
       <c r="C16">
-        <v>7.465727706512121</v>
+        <v>6.751399075372487</v>
       </c>
       <c r="D16">
-        <v>13.20702153548925</v>
+        <v>11.88239686845916</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.16030452064516</v>
+        <v>61.16876904773292</v>
       </c>
       <c r="G16">
-        <v>2.116717372725985</v>
+        <v>3.756809340652349</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.27881825818888</v>
+        <v>12.84982957381756</v>
       </c>
       <c r="L16">
-        <v>7.526338607111188</v>
+        <v>10.87509417446063</v>
       </c>
       <c r="M16">
-        <v>11.57989492202401</v>
+        <v>16.76082906094688</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.46256967427605</v>
+        <v>16.87557998637741</v>
       </c>
       <c r="C17">
-        <v>7.364261371153148</v>
+        <v>6.719104855533608</v>
       </c>
       <c r="D17">
-        <v>13.0275069014135</v>
+        <v>11.82041656443039</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.74109172703135</v>
+        <v>60.66682845507967</v>
       </c>
       <c r="G17">
-        <v>2.121697719321173</v>
+        <v>3.758237558902079</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.98443719865334</v>
+        <v>12.84222173267571</v>
       </c>
       <c r="L17">
-        <v>7.466823191271438</v>
+        <v>10.87313744234205</v>
       </c>
       <c r="M17">
-        <v>11.45598227092555</v>
+        <v>16.76287017445348</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.24939231784708</v>
+        <v>16.85859097660417</v>
       </c>
       <c r="C18">
-        <v>7.305925031654606</v>
+        <v>6.700312553195547</v>
       </c>
       <c r="D18">
-        <v>12.92384082371791</v>
+        <v>11.78452320777141</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.91913485281636</v>
+        <v>60.37642963161198</v>
       </c>
       <c r="G18">
-        <v>2.124564733755697</v>
+        <v>3.759069722383229</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.81354405524375</v>
+        <v>12.8383610212295</v>
       </c>
       <c r="L18">
-        <v>7.432923837788414</v>
+        <v>10.87216092814374</v>
       </c>
       <c r="M18">
-        <v>11.38544059827548</v>
+        <v>16.76440685438116</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.1890932364063</v>
+        <v>16.85294078591832</v>
       </c>
       <c r="C19">
-        <v>7.286174020792018</v>
+        <v>6.693912407508495</v>
       </c>
       <c r="D19">
-        <v>12.88866862564285</v>
+        <v>11.7723288460545</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.63985380960177</v>
+        <v>60.27782133491043</v>
       </c>
       <c r="G19">
-        <v>2.125536028644185</v>
+        <v>3.759353317924245</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.75540657532528</v>
+        <v>12.83714237346446</v>
       </c>
       <c r="L19">
-        <v>7.42150264125343</v>
+        <v>10.87185590081104</v>
       </c>
       <c r="M19">
-        <v>11.36168089484277</v>
+        <v>16.76498944734565</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.50255174683235</v>
+        <v>16.87877262128266</v>
       </c>
       <c r="C20">
-        <v>7.37505926026951</v>
+        <v>6.722565134358388</v>
       </c>
       <c r="D20">
-        <v>13.04665901028854</v>
+        <v>11.82703981504945</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.8927534837589</v>
+        <v>60.72043806380545</v>
       </c>
       <c r="G20">
-        <v>2.121167335890761</v>
+        <v>3.758084417021323</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.01593595377485</v>
+        <v>12.84297830076292</v>
       </c>
       <c r="L20">
-        <v>7.473124181673116</v>
+        <v>10.87333032973843</v>
       </c>
       <c r="M20">
-        <v>11.46909726925653</v>
+        <v>16.76261536009286</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.59248748770109</v>
+        <v>16.97259795575443</v>
       </c>
       <c r="C21">
-        <v>7.67427045145323</v>
+        <v>6.816238150397963</v>
       </c>
       <c r="D21">
-        <v>13.57267036316992</v>
+        <v>12.00791719782212</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.03539699001291</v>
+        <v>62.18680161833855</v>
       </c>
       <c r="G21">
-        <v>2.106506509668814</v>
+        <v>3.753948567333519</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.87294070995753</v>
+        <v>12.86873582433971</v>
       </c>
       <c r="L21">
-        <v>7.65058118106167</v>
+        <v>10.88006206625532</v>
       </c>
       <c r="M21">
-        <v>11.83879294684135</v>
+        <v>16.75897116236364</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.29053459079573</v>
+        <v>17.03908308900852</v>
       </c>
       <c r="C22">
-        <v>7.870917804108476</v>
+        <v>6.875530102047624</v>
       </c>
       <c r="D22">
-        <v>13.91320134960744</v>
+        <v>12.1238702472116</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.69497180432927</v>
+        <v>63.12854937412538</v>
       </c>
       <c r="G22">
-        <v>2.09690912566606</v>
+        <v>3.751340018640858</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.4204659863509</v>
+        <v>12.89013963751932</v>
       </c>
       <c r="L22">
-        <v>7.769667557105089</v>
+        <v>10.88578255143445</v>
       </c>
       <c r="M22">
-        <v>12.08716491821007</v>
+        <v>16.75981583463902</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.91921039255742</v>
+        <v>17.00313140214564</v>
       </c>
       <c r="C23">
-        <v>7.765816692502041</v>
+        <v>6.84406094708226</v>
       </c>
       <c r="D23">
-        <v>13.7317254539272</v>
+        <v>12.06219497709018</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.27973232655985</v>
+        <v>62.62751032023648</v>
       </c>
       <c r="G23">
-        <v>2.102034833837303</v>
+        <v>3.752723641410014</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.12931760876682</v>
+        <v>12.87829895337368</v>
       </c>
       <c r="L23">
-        <v>7.70581606290133</v>
+        <v>10.88260884241691</v>
       </c>
       <c r="M23">
-        <v>11.95397022477572</v>
+        <v>16.75907002460926</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.48448161543632</v>
+        <v>16.87732741244985</v>
       </c>
       <c r="C24">
-        <v>7.370177550005735</v>
+        <v>6.721001446167428</v>
       </c>
       <c r="D24">
-        <v>13.03800178123468</v>
+        <v>11.82404625254036</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.82420601749523</v>
+        <v>60.69620683170175</v>
       </c>
       <c r="G24">
-        <v>2.121407110173373</v>
+        <v>3.758153618000577</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.00170051970414</v>
+        <v>12.84263465777972</v>
       </c>
       <c r="L24">
-        <v>7.470274518464907</v>
+        <v>10.87324266293395</v>
       </c>
       <c r="M24">
-        <v>11.46316580879364</v>
+        <v>16.76272943025028</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.14194560448167</v>
+        <v>16.76428138737838</v>
       </c>
       <c r="C25">
-        <v>6.943989673781195</v>
+        <v>6.579940854048247</v>
       </c>
       <c r="D25">
-        <v>12.27379328084984</v>
+        <v>11.55789496418045</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>70.72298728431548</v>
+        <v>58.54916744018045</v>
       </c>
       <c r="G25">
-        <v>2.142413048536054</v>
+        <v>3.764419879845739</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.72461364224959</v>
+        <v>12.82385706584375</v>
       </c>
       <c r="L25">
-        <v>7.228871200314741</v>
+        <v>10.86883627466116</v>
       </c>
       <c r="M25">
-        <v>10.9616249102695</v>
+        <v>16.78054163316884</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_234/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_234/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.70093436015432</v>
+        <v>13.17355842011357</v>
       </c>
       <c r="C2">
-        <v>6.468860745156574</v>
+        <v>6.626803554701222</v>
       </c>
       <c r="D2">
-        <v>11.35442112295005</v>
+        <v>11.69597076909178</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>56.9220229332803</v>
+        <v>66.03887326445223</v>
       </c>
       <c r="G2">
-        <v>3.769390396562137</v>
+        <v>2.158144267694415</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.82697287926648</v>
+        <v>9.725391416536736</v>
       </c>
       <c r="L2">
-        <v>10.87050959397311</v>
+        <v>7.061445496773701</v>
       </c>
       <c r="M2">
-        <v>16.80557504187401</v>
+        <v>10.61555262517637</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.67055818930364</v>
+        <v>12.51374651209634</v>
       </c>
       <c r="C3">
-        <v>6.389049573503332</v>
+        <v>6.408139569011227</v>
       </c>
       <c r="D3">
-        <v>11.21209189896101</v>
+        <v>11.29466482286708</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>55.79519193304199</v>
+        <v>62.74657170239131</v>
       </c>
       <c r="G3">
-        <v>3.772983881830482</v>
+        <v>2.169042520745969</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.83962088372387</v>
+        <v>9.008593888965413</v>
       </c>
       <c r="L3">
-        <v>10.87471791188447</v>
+        <v>6.954219480186359</v>
       </c>
       <c r="M3">
-        <v>16.82996393019905</v>
+        <v>10.39535202581521</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.65813284678714</v>
+        <v>12.10795368898079</v>
       </c>
       <c r="C4">
-        <v>6.33780158523264</v>
+        <v>6.271605364146835</v>
       </c>
       <c r="D4">
-        <v>11.1226030171463</v>
+        <v>11.04350696377525</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>55.09314430096277</v>
+        <v>60.66900024138648</v>
       </c>
       <c r="G4">
-        <v>3.775302029571474</v>
+        <v>2.175871842493805</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.8525638025309</v>
+        <v>8.548090599448074</v>
       </c>
       <c r="L4">
-        <v>10.87881984688133</v>
+        <v>6.891410455510946</v>
       </c>
       <c r="M4">
-        <v>16.84859476777214</v>
+        <v>10.26720742993963</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.65463849258699</v>
+        <v>11.94263173692934</v>
       </c>
       <c r="C5">
-        <v>6.316352401624684</v>
+        <v>6.215336128739284</v>
       </c>
       <c r="D5">
-        <v>11.0856220458491</v>
+        <v>10.93998120838477</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>54.80476950130085</v>
+        <v>59.80874506988696</v>
       </c>
       <c r="G5">
-        <v>3.776274900733167</v>
+        <v>2.178692290647313</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.85913617042277</v>
+        <v>8.392799291687261</v>
       </c>
       <c r="L5">
-        <v>10.88087337882188</v>
+        <v>6.866570588480086</v>
       </c>
       <c r="M5">
-        <v>16.85710536122476</v>
+        <v>10.21676288468531</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.65415309247614</v>
+        <v>11.91518958925026</v>
       </c>
       <c r="C6">
-        <v>6.31275661408657</v>
+        <v>6.205952985386172</v>
       </c>
       <c r="D6">
-        <v>11.07945078449055</v>
+        <v>10.92272049916052</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>54.75675522482839</v>
+        <v>59.6650941257989</v>
       </c>
       <c r="G6">
-        <v>3.776438152144063</v>
+        <v>2.179162963303201</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.86030577417571</v>
+        <v>8.374918197638712</v>
       </c>
       <c r="L6">
-        <v>10.88123744098689</v>
+        <v>6.862491386775385</v>
       </c>
       <c r="M6">
-        <v>16.85857397386273</v>
+        <v>10.20849381855019</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.65807936437523</v>
+        <v>12.10572362312463</v>
       </c>
       <c r="C7">
-        <v>6.337514603842494</v>
+        <v>6.270849123451558</v>
       </c>
       <c r="D7">
-        <v>11.12210633922032</v>
+        <v>11.04211551222974</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>55.08926406213468</v>
+        <v>60.65745297884588</v>
       </c>
       <c r="G7">
-        <v>3.775315035697719</v>
+        <v>2.175909724884288</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.85264718995565</v>
+        <v>8.545510442722801</v>
       </c>
       <c r="L7">
-        <v>10.8788459947364</v>
+        <v>6.891072406205932</v>
       </c>
       <c r="M7">
-        <v>16.84870582761633</v>
+        <v>10.26651992906434</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.6891712130853</v>
+        <v>12.9463059667421</v>
       </c>
       <c r="C8">
-        <v>6.441806863606857</v>
+        <v>6.55184278070648</v>
       </c>
       <c r="D8">
-        <v>11.30578982544471</v>
+        <v>11.55859501280406</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>56.53576269162468</v>
+        <v>64.9155655794587</v>
       </c>
       <c r="G8">
-        <v>3.770606306970365</v>
+        <v>2.161875157114375</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.83025746707398</v>
+        <v>9.482398753554946</v>
       </c>
       <c r="L8">
-        <v>10.87164572975347</v>
+        <v>7.023841666796119</v>
       </c>
       <c r="M8">
-        <v>16.81322503809883</v>
+        <v>10.53816250642436</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.79929562856825</v>
+        <v>14.58249732591253</v>
       </c>
       <c r="C9">
-        <v>6.628574613248582</v>
+        <v>7.087842970573953</v>
       </c>
       <c r="D9">
-        <v>11.64874693562948</v>
+        <v>12.53350301820121</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>59.2801959350025</v>
+        <v>72.80789797599145</v>
       </c>
       <c r="G9">
-        <v>3.762253990430427</v>
+        <v>2.135306497866269</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.82754892435429</v>
+        <v>11.16354179691588</v>
       </c>
       <c r="L9">
-        <v>10.86955774124412</v>
+        <v>7.308554092659753</v>
       </c>
       <c r="M9">
-        <v>16.77268928458779</v>
+        <v>11.12693231292322</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.90971300251965</v>
+        <v>15.87890064334306</v>
       </c>
       <c r="C10">
-        <v>6.755054623188234</v>
+        <v>7.477311800389591</v>
       </c>
       <c r="D10">
-        <v>11.88943589168693</v>
+        <v>13.2274505685984</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>61.22580887005954</v>
+        <v>78.32148597976365</v>
       </c>
       <c r="G10">
-        <v>3.756647817077018</v>
+        <v>2.116149293297842</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.85076743675962</v>
+        <v>12.31220061953774</v>
       </c>
       <c r="L10">
-        <v>10.87533761663739</v>
+        <v>7.53317519868147</v>
       </c>
       <c r="M10">
-        <v>16.76064529309658</v>
+        <v>11.59413377104815</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.9662154915052</v>
+        <v>16.52271633116407</v>
       </c>
       <c r="C11">
-        <v>6.810280818901685</v>
+        <v>7.654832896480474</v>
       </c>
       <c r="D11">
-        <v>11.99632700244635</v>
+        <v>13.53878277524496</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>62.09272834823341</v>
+        <v>80.76979854973625</v>
       </c>
       <c r="G11">
-        <v>3.754211047246488</v>
+        <v>2.107456798667132</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.86680009322671</v>
+        <v>12.8181648040938</v>
       </c>
       <c r="L11">
-        <v>10.87954877993519</v>
+        <v>7.638903723076257</v>
       </c>
       <c r="M11">
-        <v>16.75901918638848</v>
+        <v>11.81444840477284</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.9884992228175</v>
+        <v>16.76404426882973</v>
       </c>
       <c r="C12">
-        <v>6.830862772309226</v>
+        <v>7.722231820851658</v>
       </c>
       <c r="D12">
-        <v>12.03641746157614</v>
+        <v>13.65611299754019</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>62.41817907781721</v>
+        <v>81.68865935518643</v>
       </c>
       <c r="G12">
-        <v>3.75330451106632</v>
+        <v>2.104162969505726</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.87365564472956</v>
+        <v>13.00758509811519</v>
       </c>
       <c r="L12">
-        <v>10.88137014950083</v>
+        <v>7.679471593717713</v>
       </c>
       <c r="M12">
-        <v>16.75895701100678</v>
+        <v>11.89903071964733</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.98366080309127</v>
+        <v>16.71217655734203</v>
       </c>
       <c r="C13">
-        <v>6.826444782517586</v>
+        <v>7.707706251845467</v>
       </c>
       <c r="D13">
-        <v>12.02780067375486</v>
+        <v>13.63086776532078</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>62.34821683356174</v>
+        <v>81.49112651501109</v>
       </c>
       <c r="G13">
-        <v>3.753499030347291</v>
+        <v>2.104872544304032</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.87214434503819</v>
+        <v>12.96688334884144</v>
       </c>
       <c r="L13">
-        <v>10.88096781624978</v>
+        <v>7.670710576323926</v>
       </c>
       <c r="M13">
-        <v>16.75894579030614</v>
+        <v>11.88076235545882</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.96803109112886</v>
+        <v>16.54261886649197</v>
       </c>
       <c r="C14">
-        <v>6.8119807354663</v>
+        <v>7.660373543804637</v>
       </c>
       <c r="D14">
-        <v>11.9996330955631</v>
+        <v>13.54844649963524</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>62.11956137774015</v>
+        <v>80.84555682713417</v>
       </c>
       <c r="G14">
-        <v>3.754136141591546</v>
+        <v>2.107185890167242</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.86734840183598</v>
+        <v>12.83379089833117</v>
       </c>
       <c r="L14">
-        <v>10.87969408666645</v>
+        <v>7.642230488785002</v>
       </c>
       <c r="M14">
-        <v>16.75900297983009</v>
+        <v>11.82138365935512</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.95857255259336</v>
+        <v>16.43844414905619</v>
       </c>
       <c r="C15">
-        <v>6.803078018293172</v>
+        <v>7.631407791018393</v>
       </c>
       <c r="D15">
-        <v>11.98232887696849</v>
+        <v>13.49788971149728</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>61.97912800806993</v>
+        <v>80.44906371529343</v>
       </c>
       <c r="G15">
-        <v>3.754528499230463</v>
+        <v>2.108602427169927</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.8645128025626</v>
+        <v>12.75199088795419</v>
       </c>
       <c r="L15">
-        <v>10.87894338778672</v>
+        <v>7.624855450898534</v>
       </c>
       <c r="M15">
-        <v>16.7591100867022</v>
+        <v>11.7851640759753</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.9061454545373</v>
+        <v>15.83646920629203</v>
       </c>
       <c r="C16">
-        <v>6.751399075372487</v>
+        <v>7.465727706512254</v>
       </c>
       <c r="D16">
-        <v>11.88239686845916</v>
+        <v>13.20702153548916</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>61.16876904773292</v>
+        <v>78.16030452064535</v>
       </c>
       <c r="G16">
-        <v>3.756809340652349</v>
+        <v>2.116717372726253</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.84982957381756</v>
+        <v>12.27881825818882</v>
       </c>
       <c r="L16">
-        <v>10.87509417446063</v>
+        <v>7.52633860711116</v>
       </c>
       <c r="M16">
-        <v>16.76082906094688</v>
+        <v>11.57989492202401</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.87557998637741</v>
+        <v>15.46256967427605</v>
       </c>
       <c r="C17">
-        <v>6.719104855533608</v>
+        <v>7.364261371153276</v>
       </c>
       <c r="D17">
-        <v>11.82041656443039</v>
+        <v>13.0275069014137</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>60.66682845507967</v>
+        <v>76.7410917270317</v>
       </c>
       <c r="G17">
-        <v>3.758237558902079</v>
+        <v>2.121697719321403</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.84222173267571</v>
+        <v>11.9844371986534</v>
       </c>
       <c r="L17">
-        <v>10.87313744234205</v>
+        <v>7.466823191271408</v>
       </c>
       <c r="M17">
-        <v>16.76287017445348</v>
+        <v>11.4559822709255</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.85859097660417</v>
+        <v>15.24939231784711</v>
       </c>
       <c r="C18">
-        <v>6.700312553195547</v>
+        <v>7.305925031654338</v>
       </c>
       <c r="D18">
-        <v>11.78452320777141</v>
+        <v>12.92384082371803</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>60.37642963161198</v>
+        <v>75.9191348528166</v>
       </c>
       <c r="G18">
-        <v>3.759069722383229</v>
+        <v>2.124564733755941</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.8383610212295</v>
+        <v>11.81354405524383</v>
       </c>
       <c r="L18">
-        <v>10.87216092814374</v>
+        <v>7.432923837788429</v>
       </c>
       <c r="M18">
-        <v>16.76440685438116</v>
+        <v>11.38544059827547</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.85294078591832</v>
+        <v>15.1890932364063</v>
       </c>
       <c r="C19">
-        <v>6.693912407508495</v>
+        <v>7.286174020792151</v>
       </c>
       <c r="D19">
-        <v>11.7723288460545</v>
+        <v>12.8886686256427</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>60.27782133491043</v>
+        <v>75.63985380960131</v>
       </c>
       <c r="G19">
-        <v>3.759353317924245</v>
+        <v>2.125536028644177</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.83714237346446</v>
+        <v>11.75540657532519</v>
       </c>
       <c r="L19">
-        <v>10.87185590081104</v>
+        <v>7.42150264125343</v>
       </c>
       <c r="M19">
-        <v>16.76498944734565</v>
+        <v>11.36168089484281</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.87877262128266</v>
+        <v>15.50255174683244</v>
       </c>
       <c r="C20">
-        <v>6.722565134358388</v>
+        <v>7.375059260269643</v>
       </c>
       <c r="D20">
-        <v>11.82703981504945</v>
+        <v>13.04665901028864</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>60.72043806380545</v>
+        <v>76.89275348375925</v>
       </c>
       <c r="G20">
-        <v>3.758084417021323</v>
+        <v>2.121167335890754</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.84297830076292</v>
+        <v>12.01593595377494</v>
       </c>
       <c r="L20">
-        <v>10.87333032973843</v>
+        <v>7.4731241816732</v>
       </c>
       <c r="M20">
-        <v>16.76261536009286</v>
+        <v>11.46909726925653</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.97259795575443</v>
+        <v>16.59248748770108</v>
       </c>
       <c r="C21">
-        <v>6.816238150397963</v>
+        <v>7.674270451453633</v>
       </c>
       <c r="D21">
-        <v>12.00791719782212</v>
+        <v>13.57267036316994</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>62.18680161833855</v>
+        <v>81.03539699001254</v>
       </c>
       <c r="G21">
-        <v>3.753948567333519</v>
+        <v>2.106506509668408</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.86873582433971</v>
+        <v>12.87294070995763</v>
       </c>
       <c r="L21">
-        <v>10.88006206625532</v>
+        <v>7.650581181061601</v>
       </c>
       <c r="M21">
-        <v>16.75897116236364</v>
+        <v>11.83879294684132</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.03908308900852</v>
+        <v>17.29053459079566</v>
       </c>
       <c r="C22">
-        <v>6.875530102047624</v>
+        <v>7.870917804108606</v>
       </c>
       <c r="D22">
-        <v>12.1238702472116</v>
+        <v>13.91320134960742</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>63.12854937412538</v>
+        <v>83.694971804329</v>
       </c>
       <c r="G22">
-        <v>3.751340018640858</v>
+        <v>2.096909125666079</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.89013963751932</v>
+        <v>13.42046598635086</v>
       </c>
       <c r="L22">
-        <v>10.88578255143445</v>
+        <v>7.769667557105074</v>
       </c>
       <c r="M22">
-        <v>16.75981583463902</v>
+        <v>12.08716491821009</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.00313140214564</v>
+        <v>16.91921039255743</v>
       </c>
       <c r="C23">
-        <v>6.84406094708226</v>
+        <v>7.765816692501636</v>
       </c>
       <c r="D23">
-        <v>12.06219497709018</v>
+        <v>13.7317254539272</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>62.62751032023648</v>
+        <v>82.27973232655931</v>
       </c>
       <c r="G23">
-        <v>3.752723641410014</v>
+        <v>2.102034833837395</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.87829895337368</v>
+        <v>13.12931760876675</v>
       </c>
       <c r="L23">
-        <v>10.88260884241691</v>
+        <v>7.705816062901298</v>
       </c>
       <c r="M23">
-        <v>16.75907002460926</v>
+        <v>11.9539702247757</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.87732741244985</v>
+        <v>15.48448161543634</v>
       </c>
       <c r="C24">
-        <v>6.721001446167428</v>
+        <v>7.370177550005599</v>
       </c>
       <c r="D24">
-        <v>11.82404625254036</v>
+        <v>13.03800178123467</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>60.69620683170175</v>
+        <v>76.82420601749524</v>
       </c>
       <c r="G24">
-        <v>3.758153618000577</v>
+        <v>2.121407110173763</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.84263465777972</v>
+        <v>12.00170051970415</v>
       </c>
       <c r="L24">
-        <v>10.87324266293395</v>
+        <v>7.470274518464931</v>
       </c>
       <c r="M24">
-        <v>16.76272943025028</v>
+        <v>11.46316580879364</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.76428138737838</v>
+        <v>14.14194560448171</v>
       </c>
       <c r="C25">
-        <v>6.579940854048247</v>
+        <v>6.943989673781463</v>
       </c>
       <c r="D25">
-        <v>11.55789496418045</v>
+        <v>12.27379328084999</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>58.54916744018045</v>
+        <v>70.72298728431551</v>
       </c>
       <c r="G25">
-        <v>3.764419879845739</v>
+        <v>2.14241304853632</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.82385706584375</v>
+        <v>10.72461364224955</v>
       </c>
       <c r="L25">
-        <v>10.86883627466116</v>
+        <v>7.228871200314744</v>
       </c>
       <c r="M25">
-        <v>16.78054163316884</v>
+        <v>10.96162491026956</v>
       </c>
       <c r="N25">
         <v>0</v>
